--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2846.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2846.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.169923613811173</v>
+        <v>1.211807012557983</v>
       </c>
       <c r="B1">
-        <v>2.362900801840348</v>
+        <v>1.981002569198608</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.21067476272583</v>
       </c>
       <c r="D1">
-        <v>2.32661061922301</v>
+        <v>3.006114959716797</v>
       </c>
       <c r="E1">
-        <v>1.231514930069899</v>
+        <v>1.194965839385986</v>
       </c>
     </row>
   </sheetData>
